--- a/outputs-HGR-r202-archive/g__UBA11471.xlsx
+++ b/outputs-HGR-r202-archive/g__UBA11471.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10153.fa</t>
+          <t>even_MAG-GUT10562.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.209958612931174</v>
+        <v>0.2493167608110084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002502985223712325</v>
+        <v>0.0004243511236482022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7875384018451136</v>
+        <v>0.7502588880653434</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7875384018451136</v>
+        <v>0.7502588880653434</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -503,20 +503,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10562.fa</t>
+          <t>even_MAG-GUT11041.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2493167608110084</v>
+        <v>0.2854706943970286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004243511236482022</v>
+        <v>0.0032699136942022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7502588880653434</v>
+        <v>0.7112593919087692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7502588880653434</v>
+        <v>0.7112593919087692</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,20 +532,20 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11041.fa</t>
+          <t>even_MAG-GUT11308.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2854706943970286</v>
+        <v>0.3049937910448403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0032699136942022</v>
+        <v>0.001946086367007762</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7112593919087692</v>
+        <v>0.6930601225881521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7112593919087692</v>
+        <v>0.6930601225881521</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -561,20 +561,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11308.fa</t>
+          <t>even_MAG-GUT13150.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3049937910448403</v>
+        <v>0.1982300086487611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001946086367007762</v>
+        <v>0.007105754141579613</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6930601225881521</v>
+        <v>0.7946642372096592</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6930601225881521</v>
+        <v>0.7946642372096592</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -590,20 +590,20 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11426.fa</t>
+          <t>even_MAG-GUT14705.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2772199760720634</v>
+        <v>0.1704955552384314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002296581604427324</v>
+        <v>0.003092926674360223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7204834423235092</v>
+        <v>0.8264115180872085</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7204834423235092</v>
+        <v>0.8264115180872085</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -619,20 +619,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12051.fa</t>
+          <t>even_MAG-GUT14711.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.305466863548896</v>
+        <v>0.2722935571485664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001619499458042125</v>
+        <v>0.001106734462221658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6929136369930619</v>
+        <v>0.726599708389212</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6929136369930619</v>
+        <v>0.726599708389212</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13150.fa</t>
+          <t>even_MAG-GUT19155.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1982300086487611</v>
+        <v>0.1967566771139171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007105754141579613</v>
+        <v>0.001788314883170963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7946642372096592</v>
+        <v>0.8014550080029119</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7946642372096592</v>
+        <v>0.8014550080029119</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -677,20 +677,20 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13451.fa</t>
+          <t>even_MAG-GUT19423.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2259647775236878</v>
+        <v>0.2647019566194886</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003783584694708608</v>
+        <v>0.003095527331520327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7702516377816034</v>
+        <v>0.7322025160489912</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7702516377816034</v>
+        <v>0.7322025160489912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -706,20 +706,20 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14705.fa</t>
+          <t>even_MAG-GUT22619.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1704955552384314</v>
+        <v>0.2818372877908714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003092926674360223</v>
+        <v>0.00682531354370349</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8264115180872085</v>
+        <v>0.7113373986654252</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8264115180872085</v>
+        <v>0.7113373986654252</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -735,20 +735,20 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14711.fa</t>
+          <t>even_MAG-GUT27968.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2722935571485664</v>
+        <v>0.2573128623017848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001106734462221658</v>
+        <v>0.003609038294784991</v>
       </c>
       <c r="D11" t="n">
-        <v>0.726599708389212</v>
+        <v>0.7390780994034303</v>
       </c>
       <c r="E11" t="n">
-        <v>0.726599708389212</v>
+        <v>0.7390780994034303</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -764,20 +764,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1694.fa</t>
+          <t>even_MAG-GUT2867.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2644744395728733</v>
+        <v>0.2216921610078329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002230461469564066</v>
+        <v>0.002548540038301425</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7332950989575626</v>
+        <v>0.7757592989538656</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7332950989575626</v>
+        <v>0.7757592989538656</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,20 +793,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19155.fa</t>
+          <t>even_MAG-GUT32588.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1967566771139171</v>
+        <v>0.284583723797129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001788314883170963</v>
+        <v>0.0008078823096153047</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8014550080029119</v>
+        <v>0.7146083938932557</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8014550080029119</v>
+        <v>0.7146083938932557</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -822,20 +822,20 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19423.fa</t>
+          <t>even_MAG-GUT32929.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2647019566194886</v>
+        <v>0.2583950561852155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003095527331520327</v>
+        <v>0.001408235129917809</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7322025160489912</v>
+        <v>0.7401967086848666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7322025160489912</v>
+        <v>0.7401967086848666</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -851,20 +851,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20126.fa</t>
+          <t>even_MAG-GUT33329.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3049030220314713</v>
+        <v>0.2802399032820068</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004153743801849563</v>
+        <v>0.0007668412999620003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6909432341666791</v>
+        <v>0.7189932554180312</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6909432341666791</v>
+        <v>0.7189932554180312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -880,20 +880,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20461.fa</t>
+          <t>even_MAG-GUT35943.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2491446016029431</v>
+        <v>0.2933998828636948</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004472057837302004</v>
+        <v>0.002741922237065442</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7463833405597549</v>
+        <v>0.7038581948992397</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7463833405597549</v>
+        <v>0.7038581948992397</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -909,20 +909,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22619.fa</t>
+          <t>even_MAG-GUT36571.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2818372877908714</v>
+        <v>0.2470320155504094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00682531354370349</v>
+        <v>0.002070739156031482</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7113373986654252</v>
+        <v>0.7508972452935591</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7113373986654252</v>
+        <v>0.7508972452935591</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -938,20 +938,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27968.fa</t>
+          <t>even_MAG-GUT37401.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2573128623017848</v>
+        <v>0.2602373999896846</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003609038294784991</v>
+        <v>0.001114930086679008</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7390780994034303</v>
+        <v>0.7386476699236365</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7390780994034303</v>
+        <v>0.7386476699236365</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -967,20 +967,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2867.fa</t>
+          <t>even_MAG-GUT379.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2216921610078329</v>
+        <v>0.3040685782280857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002548540038301425</v>
+        <v>0.001462816237280556</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7757592989538656</v>
+        <v>0.6944686055346339</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7757592989538656</v>
+        <v>0.6944686055346339</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -996,20 +996,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31002.fa</t>
+          <t>even_MAG-GUT39139.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3020552685483171</v>
+        <v>0.2985677522085384</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00198396772580945</v>
+        <v>0.0009051174942321146</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6959607637258735</v>
+        <v>0.7005271302972296</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6959607637258735</v>
+        <v>0.7005271302972296</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31540.fa</t>
+          <t>even_MAG-GUT40221.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3006466757503182</v>
+        <v>0.2451775008939313</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003601821102599318</v>
+        <v>0.0002832812111162398</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6957515031470825</v>
+        <v>0.7545392178949524</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6957515031470825</v>
+        <v>0.7545392178949524</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1054,20 +1054,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT317.fa</t>
+          <t>even_MAG-GUT43251.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2717677087037551</v>
+        <v>0.1779747609094451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0007444024747360693</v>
+        <v>0.001192459745056117</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7274878888215089</v>
+        <v>0.8208327793454987</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7274878888215089</v>
+        <v>0.8208327793454987</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32588.fa</t>
+          <t>even_MAG-GUT43648.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.284583723797129</v>
+        <v>0.2392120644598322</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0008078823096153047</v>
+        <v>0.002529363224335983</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7146083938932557</v>
+        <v>0.7582585723158317</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7146083938932557</v>
+        <v>0.7582585723158317</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1112,20 +1112,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32929.fa</t>
+          <t>even_MAG-GUT44774.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2583950561852155</v>
+        <v>0.2857877678279511</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001408235129917809</v>
+        <v>0.001700449848010539</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7401967086848666</v>
+        <v>0.7125117823240382</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7401967086848666</v>
+        <v>0.7125117823240382</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33329.fa</t>
+          <t>even_MAG-GUT45263.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2802399032820068</v>
+        <v>0.2467969996255312</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007668412999620003</v>
+        <v>0.00231347965751613</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7189932554180312</v>
+        <v>0.7508895207169527</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7189932554180312</v>
+        <v>0.7508895207169527</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35871.fa</t>
+          <t>even_MAG-GUT45670.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2640443924508842</v>
+        <v>0.2929033165862774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006099700970422327</v>
+        <v>0.001133395648888138</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7353456374520736</v>
+        <v>0.7059632877648344</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7353456374520736</v>
+        <v>0.7059632877648344</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1199,20 +1199,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35943.fa</t>
+          <t>even_MAG-GUT47205.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2933998828636948</v>
+        <v>0.2892152935133903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002741922237065442</v>
+        <v>0.0009262271742485196</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7038581948992397</v>
+        <v>0.7098584793123611</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7038581948992397</v>
+        <v>0.7098584793123611</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1228,20 +1228,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36571.fa</t>
+          <t>even_MAG-GUT48276.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2470320155504094</v>
+        <v>0.2655865351721329</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002070739156031482</v>
+        <v>0.002109143984585018</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7508972452935591</v>
+        <v>0.7323043208432821</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7508972452935591</v>
+        <v>0.7323043208432821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1257,20 +1257,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37401.fa</t>
+          <t>even_MAG-GUT4969.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2602373999896846</v>
+        <v>0.309613544125554</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001114930086679008</v>
+        <v>0.004885791424786455</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7386476699236365</v>
+        <v>0.6855006644496595</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7386476699236365</v>
+        <v>0.6855006644496595</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1286,20 +1286,20 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT379.fa</t>
+          <t>even_MAG-GUT57158.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3040685782280857</v>
+        <v>0.2216335332901982</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001462816237280556</v>
+        <v>0.000864560487609684</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6944686055346339</v>
+        <v>0.7775019062221922</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6944686055346339</v>
+        <v>0.7775019062221922</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1315,20 +1315,20 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39139.fa</t>
+          <t>even_MAG-GUT59579.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2985677522085384</v>
+        <v>0.2598282525951467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0009051174942321146</v>
+        <v>0.0006845822882164691</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7005271302972296</v>
+        <v>0.7394871651166367</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7005271302972296</v>
+        <v>0.7394871651166367</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1344,20 +1344,20 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40221.fa</t>
+          <t>even_MAG-GUT59599.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2451775008939313</v>
+        <v>0.2547730213165476</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002832812111162398</v>
+        <v>0.002856842267461895</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7545392178949524</v>
+        <v>0.7423701364159907</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7545392178949524</v>
+        <v>0.7423701364159907</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1373,20 +1373,20 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42780.fa</t>
+          <t>even_MAG-GUT65795.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2764634920733215</v>
+        <v>0.2451775008939313</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002956800186170552</v>
+        <v>0.0002832812111162398</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7205797077405079</v>
+        <v>0.7545392178949524</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7205797077405079</v>
+        <v>0.7545392178949524</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1402,20 +1402,20 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43251.fa</t>
+          <t>even_MAG-GUT66701.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1779747609094451</v>
+        <v>0.2625052361791154</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001192459745056117</v>
+        <v>0.0007001985848558155</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8208327793454987</v>
+        <v>0.7367945652360288</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8208327793454987</v>
+        <v>0.7367945652360288</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1431,20 +1431,20 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43648.fa</t>
+          <t>even_MAG-GUT68311.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2392120644598322</v>
+        <v>0.1870462707368792</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002529363224335983</v>
+        <v>0.002585538424038464</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7582585723158317</v>
+        <v>0.8103681908390824</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7582585723158317</v>
+        <v>0.8103681908390824</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1460,20 +1460,20 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44774.fa</t>
+          <t>even_MAG-GUT7012.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2857877678279511</v>
+        <v>0.2298685253413774</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001700449848010539</v>
+        <v>0.003715389519797334</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7125117823240382</v>
+        <v>0.7664160851388252</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7125117823240382</v>
+        <v>0.7664160851388252</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1489,20 +1489,20 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45263.fa</t>
+          <t>even_MAG-GUT70913.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2467969996255312</v>
+        <v>0.2259156284269072</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00231347965751613</v>
+        <v>0.0005191052030462897</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7508895207169527</v>
+        <v>0.7735652663700464</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7508895207169527</v>
+        <v>0.7735652663700464</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1518,20 +1518,20 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45396.fa</t>
+          <t>even_MAG-GUT722.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2339463680772566</v>
+        <v>0.2842859812850576</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002570998372184699</v>
+        <v>0.001372446070456105</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7634826335505588</v>
+        <v>0.7143415726444864</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7634826335505588</v>
+        <v>0.7143415726444864</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1547,20 +1547,20 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45670.fa</t>
+          <t>even_MAG-GUT72929.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2929033165862774</v>
+        <v>0.3009968282463364</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001133395648888138</v>
+        <v>0.001451733160338823</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7059632877648344</v>
+        <v>0.6975514385933247</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7059632877648344</v>
+        <v>0.6975514385933247</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1576,20 +1576,20 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46167.fa</t>
+          <t>even_MAG-GUT81123.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2723490353761532</v>
+        <v>0.2748006104312378</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004475774889785792</v>
+        <v>0.002008624687492852</v>
       </c>
       <c r="D40" t="n">
-        <v>0.723175189734061</v>
+        <v>0.7231907648812693</v>
       </c>
       <c r="E40" t="n">
-        <v>0.723175189734061</v>
+        <v>0.7231907648812693</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1605,20 +1605,20 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46378.fa</t>
+          <t>even_MAG-GUT81409.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2518801803995278</v>
+        <v>0.2741160274398487</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001313299327185043</v>
+        <v>0.008490021854846286</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7468065202732871</v>
+        <v>0.717393950705305</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7468065202732871</v>
+        <v>0.717393950705305</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1634,20 +1634,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47205.fa</t>
+          <t>even_MAG-GUT81936.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2892152935133903</v>
+        <v>0.2749012467719654</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0009262271742485196</v>
+        <v>0.001407146364014981</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7098584793123611</v>
+        <v>0.7236916068640197</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7098584793123611</v>
+        <v>0.7236916068640197</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1663,20 +1663,20 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48276.fa</t>
+          <t>even_MAG-GUT82089.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2655865351721329</v>
+        <v>0.2766455164109699</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002109143984585018</v>
+        <v>0.001126204454253956</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7323043208432821</v>
+        <v>0.7222282791347762</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7323043208432821</v>
+        <v>0.7222282791347762</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1692,20 +1692,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT82314.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.309613544125554</v>
+        <v>0.2552253897548306</v>
       </c>
       <c r="C44" t="n">
-        <v>0.004885791424786455</v>
+        <v>0.001856964586694379</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6855006644496595</v>
+        <v>0.742917645658475</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6855006644496595</v>
+        <v>0.742917645658475</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT82472.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2216335332901982</v>
+        <v>0.2985392681164451</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000864560487609684</v>
+        <v>0.001583638897642943</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7775019062221922</v>
+        <v>0.6998770929859119</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7775019062221922</v>
+        <v>0.6998770929859119</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1750,20 +1750,20 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59579.fa</t>
+          <t>even_MAG-GUT82505.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2598282525951467</v>
+        <v>0.2782701071669898</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0006845822882164691</v>
+        <v>0.00174257115473732</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7394871651166367</v>
+        <v>0.719987321678273</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7394871651166367</v>
+        <v>0.719987321678273</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1779,20 +1779,20 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59599.fa</t>
+          <t>even_MAG-GUT84166.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2547730213165476</v>
+        <v>0.1811725651887926</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002856842267461895</v>
+        <v>0.002065969115249866</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7423701364159907</v>
+        <v>0.8167614656959575</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7423701364159907</v>
+        <v>0.8167614656959575</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1808,20 +1808,20 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65795.fa</t>
+          <t>even_MAG-GUT86112.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2451775008939313</v>
+        <v>0.1924298158741591</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002832812111162398</v>
+        <v>0.002729566332849038</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7545392178949524</v>
+        <v>0.8048406177929919</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7545392178949524</v>
+        <v>0.8048406177929919</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1829,673 +1829,6 @@
         </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66701.fa</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.2625052361791154</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0007001985848558155</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.7367945652360288</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.7367945652360288</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68072.fa</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2218646016236214</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.001144996012749034</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.7769904023636296</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.7769904023636296</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68311.fa</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.1870462707368792</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.002585538424038464</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.8103681908390824</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.8103681908390824</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7012.fa</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.2298685253413774</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.003715389519797334</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.7664160851388252</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.7664160851388252</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70913.fa</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.2259156284269072</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.0005191052030462897</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.7735652663700464</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.7735652663700464</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT722.fa</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.2842859812850576</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.001372446070456105</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.7143415726444864</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.7143415726444864</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72293.fa</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.2141072842477008</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.002978353447220292</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.7829143623050789</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.7829143623050789</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72929.fa</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.3009968282463364</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.001451733160338823</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.6975514385933247</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.6975514385933247</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80330.fa</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.2948447206667494</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.003124362193853909</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.7020309171393967</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.7020309171393967</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81123.fa</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.2748006104312378</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.002008624687492852</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.7231907648812693</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.7231907648812693</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81409.fa</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.2741160274398487</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.008490021854846286</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.717393950705305</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.717393950705305</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81646.fa</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.2772315858632236</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.001719566793584523</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.721048847343192</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.721048847343192</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81936.fa</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.2749012467719654</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.001407146364014981</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.7236916068640197</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.7236916068640197</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82089.fa</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.2766455164109699</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.001126204454253956</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.7222282791347762</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.7222282791347762</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82177.fa</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.3080523296652625</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.001597208395092627</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.690350461939645</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.690350461939645</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82314.fa</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.2552253897548306</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.001856964586694379</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.742917645658475</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.742917645658475</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82472.fa</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.2985392681164451</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.001583638897642943</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.6998770929859119</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.6998770929859119</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82505.fa</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.2782701071669898</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.00174257115473732</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.719987321678273</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.719987321678273</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82571.fa</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.3158867831957739</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.002832129682629472</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.6812810871215966</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.6812810871215966</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT838.fa</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.3230830573510752</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.003055131934011051</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.6738618107149138</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.6738618107149138</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84166.fa</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.1811725651887926</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.002065969115249866</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.8167614656959575</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.8167614656959575</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84304.fa</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.2033301216608628</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.007197131206390849</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.7894727471327463</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.7894727471327463</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86112.fa</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.1924298158741591</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.002729566332849038</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.8048406177929919</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.8048406177929919</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
         <is>
           <t>s__UBA11471 sp900547555</t>
         </is>
